--- a/src/test/resources/testdata/HrmsTestData.xlsx
+++ b/src/test/resources/testdata/HrmsTestData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\JavaBasics\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\SyntaxHrms\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E93553D-8561-4C0E-98DA-277FC11EF440}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07141682-31C8-4317-86EA-A6EC70196EDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{190869DF-1B93-419B-9040-B093F882A8A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample" sheetId="1" r:id="rId1"/>
+    <sheet name="AddEmployee" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>FirstName</t>
   </si>
@@ -50,37 +50,13 @@
     <t>Doe</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>johndoe</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Jane</t>
   </si>
   <si>
-    <t>janedoe</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
     <t>Smith</t>
-  </si>
-  <si>
-    <t>jamesmith</t>
-  </si>
-  <si>
-    <t>john123</t>
-  </si>
-  <si>
-    <t>jane123</t>
-  </si>
-  <si>
-    <t>james123</t>
   </si>
 </sst>
 </file>
@@ -433,19 +409,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F23426C-31EC-4EDA-A60E-354B2594EAD6}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,14 +433,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -472,16 +444,10 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -489,31 +455,19 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -522,12 +476,6 @@
       </c>
       <c r="C5" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
